--- a/2. Dạy kèm/Nội dung học.xlsx
+++ b/2. Dạy kèm/Nội dung học.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBDC5B0-AE4E-4455-BAD3-37DACD3842BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C5FB4-EA02-45B4-9298-0336E8013927}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lộ trình học LC Cơ Bản" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="328">
   <si>
     <t>Luyện Tập Part 2</t>
   </si>
@@ -861,9 +861,6 @@
     <t>Động từ nguyên mẫu có To &amp; Danh động từ</t>
   </si>
   <si>
-    <t>Bài test số 3: Các hình thức thuộc động từ</t>
-  </si>
-  <si>
     <t>Bài test số 2: Danh từ, Tính từ, Trạng từ, Đại từ</t>
   </si>
   <si>
@@ -877,9 +874,6 @@
   </si>
   <si>
     <t>Part 3.2</t>
-  </si>
-  <si>
-    <t>Part 3.3</t>
   </si>
   <si>
     <t>LỘ TRÌNH HỌC READING - KHOÁ CƠ BẢN</t>
@@ -1054,6 +1048,9 @@
   <si>
     <t>:</t>
   </si>
+  <si>
+    <t>Bài test số 3: Động từ</t>
+  </si>
 </sst>
 </file>
 
@@ -1063,7 +1060,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,6 +1193,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1769,24 +1779,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1901,9 +1899,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2092,12 +2087,22 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2107,17 +2112,110 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2143,109 +2241,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
@@ -2603,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,158 +2627,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="128"/>
+      <c r="A1" s="122" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="122"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="123">
+      <c r="A3" s="116">
         <v>1</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="117" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="116">
+        <v>2</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="116">
+        <v>3</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="116">
+        <v>4</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="116">
+        <v>5</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="116">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="116">
+        <v>7</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="116">
+        <v>8</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="116">
+        <v>9</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="116">
+        <v>10</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="116">
+        <v>11</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="116">
+        <v>12</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="123">
-        <v>2</v>
-      </c>
-      <c r="B4" s="124" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="123">
-        <v>3</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="123">
-        <v>4</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="123">
-        <v>5</v>
-      </c>
-      <c r="B7" s="50" t="s">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="116">
+        <v>13</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="116">
+        <v>14</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="123">
-        <v>6</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="123">
-        <v>7</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="123">
-        <v>8</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="123">
-        <v>9</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="123">
-        <v>10</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="123">
-        <v>11</v>
-      </c>
-      <c r="B13" s="50" t="s">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="116">
+        <v>15</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="116">
+        <v>16</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="118"/>
+      <c r="B19" s="119"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="118"/>
+      <c r="B20" s="120"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="121" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="123">
-        <v>12</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="123">
-        <v>13</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="123">
-        <v>14</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="123">
-        <v>15</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="123">
-        <v>16</v>
-      </c>
-      <c r="B18" s="67" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="126"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
-      <c r="B20" s="127"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="179" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2781,312 +2792,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="56" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:4" s="49" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="123" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="176">
+        <v>1</v>
+      </c>
+      <c r="B3" s="176">
+        <v>1</v>
+      </c>
+      <c r="C3" s="177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="176">
+        <v>2</v>
+      </c>
+      <c r="B4" s="176">
+        <v>2</v>
+      </c>
+      <c r="C4" s="177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="176">
+        <v>3</v>
+      </c>
+      <c r="B5" s="176">
+        <v>3</v>
+      </c>
+      <c r="C5" s="177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="176">
+        <v>4</v>
+      </c>
+      <c r="B6" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="177" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="176">
+        <v>5</v>
+      </c>
+      <c r="B7" s="176">
+        <v>4</v>
+      </c>
+      <c r="C7" s="177" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="176">
+        <v>6</v>
+      </c>
+      <c r="B8" s="176">
+        <v>5</v>
+      </c>
+      <c r="C8" s="177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="176">
+        <v>7</v>
+      </c>
+      <c r="B9" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="177" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="173"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="176">
+        <v>8</v>
+      </c>
+      <c r="B10" s="176">
+        <v>6</v>
+      </c>
+      <c r="C10" s="177" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="176">
+        <v>9</v>
+      </c>
+      <c r="B11" s="176">
+        <v>7</v>
+      </c>
+      <c r="C11" s="177" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="176">
+        <v>10</v>
+      </c>
+      <c r="B12" s="176">
+        <v>8</v>
+      </c>
+      <c r="C12" s="177" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="176">
+        <v>11</v>
+      </c>
+      <c r="B13" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="177" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="176">
+        <v>12</v>
+      </c>
+      <c r="B14" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="177" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="176">
+        <v>13</v>
+      </c>
+      <c r="B15" s="178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="176">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="B16" s="176" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="176">
+        <v>15</v>
+      </c>
+      <c r="B17" s="176" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="179" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="176">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="B18" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="180" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="47"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="47"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="54"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="47"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="54"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="47"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="47"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="47"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="54"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="54"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="47"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="47"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="47"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="55"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="48"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="55"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="48"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="55"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="48"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="55"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="48"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="55"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="48"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="55"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="48"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3107,2227 +3119,2220 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="32.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="32.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="127" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="128"/>
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="131"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="128"/>
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="131"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="128"/>
+      <c r="B5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="131"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="128"/>
+      <c r="B6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="131"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="128"/>
+      <c r="B7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="131"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="128"/>
+      <c r="B8" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="131"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="128"/>
+      <c r="B9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="131"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="128"/>
+      <c r="B10" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="128"/>
+      <c r="B11" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="131"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="128"/>
+      <c r="B12" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="127" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="131"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="128"/>
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="131"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="128"/>
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="131"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="128"/>
+      <c r="B17" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="128"/>
+      <c r="B18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="128"/>
+      <c r="B19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="128"/>
+      <c r="B20" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="128"/>
+      <c r="B21" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="128"/>
+      <c r="B22" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="128"/>
+      <c r="B23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="128"/>
+      <c r="B24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="130" t="s">
+      <c r="A25" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="128"/>
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="131"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="128"/>
+      <c r="B27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="131"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="128"/>
+      <c r="B28" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="131"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="128"/>
+      <c r="B29" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="131"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="128"/>
+      <c r="B30" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="131"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="128"/>
+      <c r="B31" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="131"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="128"/>
+      <c r="B32" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="131"/>
-      <c r="B33" s="14" t="s">
+      <c r="A33" s="128"/>
+      <c r="B33" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="131"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="128"/>
+      <c r="B34" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="130" t="s">
+      <c r="A35" s="127" t="s">
         <v>230</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="131"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="128"/>
+      <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="131"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="128"/>
+      <c r="B37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="131"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="128"/>
+      <c r="B38" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="131"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="128"/>
+      <c r="B39" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="131"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="128"/>
+      <c r="B40" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="131"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="128"/>
+      <c r="B41" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="131"/>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="128"/>
+      <c r="B42" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="131"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="128"/>
+      <c r="B43" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="131"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="128"/>
+      <c r="B44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="130" t="s">
+      <c r="A45" s="127" t="s">
         <v>231</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="131"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="128"/>
+      <c r="B46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="131"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="128"/>
+      <c r="B47" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="131"/>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="128"/>
+      <c r="B48" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="131"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="128"/>
+      <c r="B49" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="131"/>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="128"/>
+      <c r="B50" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="131"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="128"/>
+      <c r="B51" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="131"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="128"/>
+      <c r="B52" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="131"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="128"/>
+      <c r="B53" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="131"/>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="128"/>
+      <c r="B54" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="133" t="s">
+      <c r="A55" s="124" t="s">
         <v>208</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="134"/>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="125"/>
+      <c r="B56" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="134"/>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="125"/>
+      <c r="B57" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="134"/>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="125"/>
+      <c r="B58" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="134"/>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="125"/>
+      <c r="B59" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="134"/>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="125"/>
+      <c r="B60" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="134"/>
-      <c r="B61" s="12" t="s">
+      <c r="A61" s="125"/>
+      <c r="B61" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="134"/>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="125"/>
+      <c r="B62" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="134"/>
-      <c r="B63" s="12" t="s">
+      <c r="A63" s="125"/>
+      <c r="B63" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="135"/>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="126"/>
+      <c r="B64" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="38">
         <v>33</v>
       </c>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="130" t="s">
+      <c r="A65" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="131"/>
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="128"/>
+      <c r="B66" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="131"/>
-      <c r="B67" s="12" t="s">
+      <c r="A67" s="128"/>
+      <c r="B67" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="131"/>
-      <c r="B68" s="14" t="s">
+      <c r="A68" s="128"/>
+      <c r="B68" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="131"/>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="128"/>
+      <c r="B69" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="131"/>
-      <c r="B70" s="14" t="s">
+      <c r="A70" s="128"/>
+      <c r="B70" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="131"/>
-      <c r="B71" s="14" t="s">
+      <c r="A71" s="128"/>
+      <c r="B71" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="131"/>
-      <c r="B72" s="12" t="s">
+      <c r="A72" s="128"/>
+      <c r="B72" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="134"/>
-      <c r="B73" s="12" t="s">
+      <c r="A73" s="125"/>
+      <c r="B73" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C73" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="132"/>
-      <c r="B74" s="14" t="s">
+      <c r="A74" s="129"/>
+      <c r="B74" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E74" s="44">
+      <c r="E74" s="38">
         <v>25</v>
       </c>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="130" t="s">
+      <c r="A75" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="40" t="s">
+      <c r="C75" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="131"/>
-      <c r="B76" s="14" t="s">
+      <c r="A76" s="128"/>
+      <c r="B76" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="131"/>
-      <c r="B77" s="14" t="s">
+      <c r="A77" s="128"/>
+      <c r="B77" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="131"/>
-      <c r="B78" s="14" t="s">
+      <c r="A78" s="128"/>
+      <c r="B78" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="131"/>
-      <c r="B79" s="14" t="s">
+      <c r="A79" s="128"/>
+      <c r="B79" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="131"/>
-      <c r="B80" s="14" t="s">
+      <c r="A80" s="128"/>
+      <c r="B80" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="131"/>
-      <c r="B81" s="14" t="s">
+      <c r="A81" s="128"/>
+      <c r="B81" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="131"/>
-      <c r="B82" s="14" t="s">
+      <c r="A82" s="128"/>
+      <c r="B82" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="131"/>
-      <c r="B83" s="14" t="s">
+      <c r="A83" s="128"/>
+      <c r="B83" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="132"/>
-      <c r="B84" s="14" t="s">
+      <c r="A84" s="129"/>
+      <c r="B84" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E84" s="44">
+      <c r="E84" s="38">
         <v>30</v>
       </c>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="130" t="s">
+      <c r="A85" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="131"/>
-      <c r="B86" s="14" t="s">
+      <c r="A86" s="128"/>
+      <c r="B86" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="131"/>
-      <c r="B87" s="14" t="s">
+      <c r="A87" s="128"/>
+      <c r="B87" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D87" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="131"/>
-      <c r="B88" s="14" t="s">
+      <c r="A88" s="128"/>
+      <c r="B88" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="131"/>
-      <c r="B89" s="14" t="s">
+      <c r="A89" s="128"/>
+      <c r="B89" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="131"/>
-      <c r="B90" s="14" t="s">
+      <c r="A90" s="128"/>
+      <c r="B90" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C90" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="131"/>
-      <c r="B91" s="14" t="s">
+      <c r="A91" s="128"/>
+      <c r="B91" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="131"/>
-      <c r="B92" s="14" t="s">
+      <c r="A92" s="128"/>
+      <c r="B92" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="131"/>
-      <c r="B93" s="14" t="s">
+      <c r="A93" s="128"/>
+      <c r="B93" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="132"/>
-      <c r="B94" s="14" t="s">
+      <c r="A94" s="129"/>
+      <c r="B94" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="D94" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E94" s="44">
+      <c r="E94" s="38">
         <v>36</v>
       </c>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="130" t="s">
+      <c r="A95" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="131"/>
-      <c r="B96" s="14" t="s">
+      <c r="A96" s="128"/>
+      <c r="B96" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="D96" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="131"/>
-      <c r="B97" s="14" t="s">
+      <c r="A97" s="128"/>
+      <c r="B97" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="131"/>
-      <c r="B98" s="14" t="s">
+      <c r="A98" s="128"/>
+      <c r="B98" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E98" s="44"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="131"/>
-      <c r="B99" s="14" t="s">
+      <c r="A99" s="128"/>
+      <c r="B99" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="131"/>
-      <c r="B100" s="14" t="s">
+      <c r="A100" s="128"/>
+      <c r="B100" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="D100" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="131"/>
-      <c r="B101" s="14" t="s">
+      <c r="A101" s="128"/>
+      <c r="B101" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="42" t="s">
+      <c r="C101" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E101" s="44"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="131"/>
-      <c r="B102" s="14" t="s">
+      <c r="A102" s="128"/>
+      <c r="B102" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D102" s="12" t="s">
+      <c r="D102" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E102" s="44">
+      <c r="E102" s="38">
         <v>26</v>
       </c>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="133" t="s">
+      <c r="A103" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C103" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E103" s="44"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="134"/>
-      <c r="B104" s="14" t="s">
+      <c r="A104" s="125"/>
+      <c r="B104" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="42" t="s">
+      <c r="C104" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D104" s="12" t="s">
+      <c r="D104" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="134"/>
-      <c r="B105" s="14" t="s">
+      <c r="A105" s="125"/>
+      <c r="B105" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C105" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D105" s="12" t="s">
+      <c r="D105" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E105" s="44"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="134"/>
-      <c r="B106" s="14" t="s">
+      <c r="A106" s="125"/>
+      <c r="B106" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D106" s="12" t="s">
+      <c r="D106" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E106" s="44"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="44"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="134"/>
-      <c r="B107" s="14" t="s">
+      <c r="A107" s="125"/>
+      <c r="B107" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="42" t="s">
+      <c r="C107" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D107" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E107" s="44"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="134"/>
-      <c r="B108" s="14" t="s">
+      <c r="A108" s="125"/>
+      <c r="B108" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="D108" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E108" s="44"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="134"/>
-      <c r="B109" s="14" t="s">
+      <c r="A109" s="125"/>
+      <c r="B109" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="34" t="s">
+      <c r="C109" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D109" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E109" s="44"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="135"/>
-      <c r="B110" s="14" t="s">
+      <c r="A110" s="126"/>
+      <c r="B110" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="C110" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D110" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E110" s="44">
+      <c r="E110" s="38">
         <v>23</v>
       </c>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="133" t="s">
+      <c r="A111" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="40" t="s">
+      <c r="C111" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D111" s="24" t="s">
+      <c r="D111" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="E111" s="44"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="134"/>
-      <c r="B112" s="14" t="s">
+      <c r="A112" s="125"/>
+      <c r="B112" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="D112" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E112" s="44"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="134"/>
-      <c r="B113" s="14" t="s">
+      <c r="A113" s="125"/>
+      <c r="B113" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="39" t="s">
+      <c r="C113" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E113" s="44"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="44"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="134"/>
-      <c r="B114" s="14" t="s">
+      <c r="A114" s="125"/>
+      <c r="B114" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="39" t="s">
+      <c r="C114" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="D114" s="25" t="s">
+      <c r="D114" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E114" s="44"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="134"/>
-      <c r="B115" s="14" t="s">
+      <c r="A115" s="125"/>
+      <c r="B115" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C115" s="39" t="s">
+      <c r="C115" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D115" s="25" t="s">
+      <c r="D115" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E115" s="44"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="134"/>
-      <c r="B116" s="14" t="s">
+      <c r="A116" s="125"/>
+      <c r="B116" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="39" t="s">
+      <c r="C116" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="D116" s="25" t="s">
+      <c r="D116" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E116" s="44"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="44"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="134"/>
-      <c r="B117" s="14" t="s">
+      <c r="A117" s="125"/>
+      <c r="B117" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C117" s="39" t="s">
+      <c r="C117" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D117" s="25" t="s">
+      <c r="D117" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E117" s="44"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="134"/>
-      <c r="B118" s="16" t="s">
+      <c r="A118" s="125"/>
+      <c r="B118" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C118" s="41" t="s">
+      <c r="C118" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D118" s="26" t="s">
+      <c r="D118" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E118" s="44">
+      <c r="E118" s="38">
         <v>29</v>
       </c>
-      <c r="F118" s="44"/>
-      <c r="G118" s="44"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="130" t="s">
+      <c r="A119" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C119" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E119" s="44"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="44"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="131"/>
-      <c r="B120" s="12" t="s">
+      <c r="A120" s="128"/>
+      <c r="B120" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D120" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E120" s="44"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="131"/>
-      <c r="B121" s="12" t="s">
+      <c r="A121" s="128"/>
+      <c r="B121" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="39" t="s">
+      <c r="C121" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D121" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E121" s="44"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="131"/>
-      <c r="B122" s="12" t="s">
+      <c r="A122" s="128"/>
+      <c r="B122" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C122" s="39" t="s">
+      <c r="C122" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D122" s="12" t="s">
+      <c r="D122" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E122" s="44"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="131"/>
-      <c r="B123" s="11" t="s">
+      <c r="A123" s="128"/>
+      <c r="B123" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C123" s="41" t="s">
+      <c r="C123" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D123" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E123" s="44"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="38"/>
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="130" t="s">
+      <c r="A124" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C124" s="32" t="s">
+      <c r="C124" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D124" s="13" t="s">
+      <c r="D124" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="131"/>
-      <c r="B125" s="12" t="s">
+      <c r="A125" s="128"/>
+      <c r="B125" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="C125" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="D125" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E125" s="44"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="38"/>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="131"/>
-      <c r="B126" s="12" t="s">
+      <c r="A126" s="128"/>
+      <c r="B126" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="C126" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D126" s="12" t="s">
+      <c r="D126" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E126" s="44"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="38"/>
+      <c r="G126" s="38"/>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="131"/>
-      <c r="B127" s="12" t="s">
+      <c r="A127" s="128"/>
+      <c r="B127" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C127" s="32" t="s">
+      <c r="C127" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D127" s="12" t="s">
+      <c r="D127" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E127" s="44"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="132"/>
-      <c r="B128" s="11" t="s">
+      <c r="A128" s="129"/>
+      <c r="B128" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C128" s="39" t="s">
+      <c r="C128" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D128" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E128" s="44"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="38"/>
+      <c r="G128" s="38"/>
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="130" t="s">
+      <c r="A129" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C129" s="40" t="s">
+      <c r="C129" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="D129" s="13" t="s">
+      <c r="D129" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E129" s="44"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="131"/>
-      <c r="B130" s="12" t="s">
+      <c r="A130" s="128"/>
+      <c r="B130" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C130" s="30" t="s">
+      <c r="C130" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D130" s="12" t="s">
+      <c r="D130" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E130" s="44"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="131"/>
-      <c r="B131" s="12" t="s">
+      <c r="A131" s="128"/>
+      <c r="B131" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C131" s="30" t="s">
+      <c r="C131" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D131" s="12" t="s">
+      <c r="D131" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E131" s="44"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="131"/>
-      <c r="B132" s="12" t="s">
+      <c r="A132" s="128"/>
+      <c r="B132" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C132" s="30" t="s">
+      <c r="C132" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="132"/>
-      <c r="B133" s="11" t="s">
+      <c r="A133" s="129"/>
+      <c r="B133" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C133" s="39" t="s">
+      <c r="C133" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D133" s="12" t="s">
+      <c r="D133" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E133" s="44"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="130" t="s">
+      <c r="A134" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C134" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D134" s="13" t="s">
+      <c r="D134" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E134" s="44"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="131"/>
-      <c r="B135" s="14" t="s">
+      <c r="A135" s="128"/>
+      <c r="B135" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="42" t="s">
+      <c r="C135" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D135" s="12" t="s">
+      <c r="D135" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E135" s="44"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="131"/>
-      <c r="B136" s="14" t="s">
+      <c r="A136" s="128"/>
+      <c r="B136" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C136" s="42" t="s">
+      <c r="C136" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D136" s="12" t="s">
+      <c r="D136" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E136" s="44"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="131"/>
-      <c r="B137" s="14" t="s">
+      <c r="A137" s="128"/>
+      <c r="B137" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D137" s="12" t="s">
+      <c r="D137" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E137" s="44"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="44"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="132"/>
-      <c r="B138" s="16" t="s">
+      <c r="A138" s="129"/>
+      <c r="B138" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C138" s="45" t="s">
+      <c r="C138" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E138" s="44"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="38"/>
+      <c r="G138" s="38"/>
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="130" t="s">
+      <c r="A139" s="127" t="s">
         <v>217</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C139" s="40" t="s">
+      <c r="C139" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="D139" s="13" t="s">
+      <c r="D139" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E139" s="44"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="131"/>
-      <c r="B140" s="12" t="s">
+      <c r="A140" s="128"/>
+      <c r="B140" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C140" s="39" t="s">
+      <c r="C140" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D140" s="12" t="s">
+      <c r="D140" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E140" s="44"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="44"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
+      <c r="G140" s="38"/>
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="131"/>
-      <c r="B141" s="12" t="s">
+      <c r="A141" s="128"/>
+      <c r="B141" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C141" s="39" t="s">
+      <c r="C141" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="D141" s="12" t="s">
+      <c r="D141" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E141" s="44"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="44"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="38"/>
+      <c r="G141" s="38"/>
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="131"/>
-      <c r="B142" s="12" t="s">
+      <c r="A142" s="128"/>
+      <c r="B142" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C142" s="30" t="s">
+      <c r="C142" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D142" s="12" t="s">
+      <c r="D142" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E142" s="44"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="44"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="38"/>
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="132"/>
-      <c r="B143" s="11" t="s">
+      <c r="A143" s="129"/>
+      <c r="B143" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C143" s="41" t="s">
+      <c r="C143" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E143" s="44"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="44"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="38"/>
+      <c r="G143" s="38"/>
     </row>
     <row r="145" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C145" s="17"/>
-      <c r="D145" s="19"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="13"/>
     </row>
     <row r="146" spans="3:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C146" s="17"/>
-      <c r="D146" s="19"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A103:A110"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A111:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A24"/>
     <mergeCell ref="A75:A84"/>
@@ -5338,6 +5343,13 @@
     <mergeCell ref="A25:A34"/>
     <mergeCell ref="A35:A44"/>
     <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A103:A110"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A111:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5354,153 +5366,153 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="9" style="57"/>
-    <col min="11" max="11" width="9.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="57"/>
+    <col min="1" max="1" width="12.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9" style="50"/>
+    <col min="11" max="11" width="9.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>308</v>
-      </c>
-      <c r="D1" s="65" t="s">
+      <c r="B1" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="C1" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="D1" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="E1" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="F1" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="G1" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="I1" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="J1" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="K1" s="55" t="s">
         <v>298</v>
       </c>
+      <c r="L1" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="57">
+      <c r="A2" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="50">
         <v>12</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="50">
         <v>10</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="50">
         <v>14</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="50">
         <v>8</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="50">
         <v>11</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="50">
         <v>12</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="50">
         <v>17</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="50">
         <v>4</v>
       </c>
-      <c r="K2" s="57">
+      <c r="K2" s="50">
         <v>18</v>
       </c>
-      <c r="L2" s="57">
+      <c r="L2" s="50">
         <v>16</v>
       </c>
-      <c r="M2" s="57">
+      <c r="M2" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="B3" s="57">
+      <c r="A3" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="50">
         <v>10</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="50">
         <v>10</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="50">
         <v>10</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="50">
         <v>6</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="50">
         <v>13</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="50">
         <v>13</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="50">
         <v>12</v>
       </c>
-      <c r="J3" s="57">
+      <c r="J3" s="50">
         <v>4</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="50">
         <v>11</v>
       </c>
-      <c r="L3" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="M3" s="57">
+      <c r="L3" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="M3" s="50">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="B4" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="C4" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="D4" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="E4" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="F4" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="J4" s="52" t="s">
         <v>286</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5519,65 +5531,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="74" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="74"/>
-    <col min="4" max="5" width="18.42578125" style="74" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="74"/>
+    <col min="1" max="1" width="9" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="67"/>
+    <col min="4" max="5" width="18.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="A1" s="130" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="107" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="115">
+      <c r="A3" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="108">
         <v>100000</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>312</v>
-      </c>
-      <c r="B4" s="116">
+      <c r="A4" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="109">
         <v>120000</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="120"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="116">
+      <c r="A5" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="109">
         <v>150000</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5598,625 +5610,640 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="76"/>
-    <col min="2" max="2" width="8.5703125" style="76" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="77" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="76" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="76" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="76" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="76" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="76" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="76" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="76" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="76" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="76" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="76" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="76"/>
+    <col min="1" max="1" width="9.140625" style="69"/>
+    <col min="2" max="2" width="8.5703125" style="69" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="70" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="69" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="69" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="69" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="69" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="69" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="69" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="69" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="69" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="163"/>
+      <c r="B2" s="105" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133"/>
     </row>
     <row r="3" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="113" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="152"/>
+      <c r="B3" s="106" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="135"/>
     </row>
     <row r="4" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
-        <v>318</v>
-      </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="146"/>
+      <c r="B4" s="106" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="159"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="137"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="161" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
+      <c r="B5" s="131" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="161"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="152"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
     </row>
     <row r="7" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="113" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="152"/>
+      <c r="B7" s="106" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="138"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="135"/>
     </row>
     <row r="8" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="111" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="142"/>
+      <c r="B8" s="104" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="167"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="170"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="110" t="s">
-        <v>314</v>
-      </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="105"/>
+      <c r="B10" s="103" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="102"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="98"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="104">
+      <c r="B11" s="97">
         <v>1</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="98"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="91"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="91">
+      <c r="B12" s="84">
         <v>2</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="85"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="91">
+      <c r="B13" s="84">
         <v>3</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="85"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="78"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="91">
+      <c r="B14" s="84">
         <v>4</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="85"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="91">
+      <c r="B15" s="84">
         <v>5</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="85"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="78"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="91">
+      <c r="B16" s="84">
         <v>6</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="85"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="78"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="91">
+      <c r="B17" s="84">
         <v>7</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="85"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="78"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="91">
+      <c r="B18" s="84">
         <v>8</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="85"/>
-      <c r="N18" s="92"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="78"/>
+      <c r="N18" s="85"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="91">
+      <c r="B19" s="84">
         <v>9</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="85"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="78"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="91">
+      <c r="B20" s="84">
         <v>10</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="85"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="78"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="91">
+      <c r="B21" s="84">
         <v>11</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="85"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="78"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="91">
+      <c r="B22" s="84">
         <v>12</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="85"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="78"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="91">
+      <c r="B23" s="84">
         <v>13</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="85"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="78"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="91">
+      <c r="B24" s="84">
         <v>14</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="85"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="78"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="91">
+      <c r="B25" s="84">
         <v>15</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="85"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="78"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="91">
+      <c r="B26" s="84">
         <v>16</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="85"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="78"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="91">
+      <c r="B27" s="84">
         <v>17</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="85"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="78"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="91">
+      <c r="B28" s="84">
         <v>18</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="85"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="78"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="91">
+      <c r="B29" s="84">
         <v>19</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="85"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="78"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="91">
+      <c r="B30" s="84">
         <v>20</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="85"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="78"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="91">
+      <c r="B31" s="84">
         <v>21</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="85"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="78"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="91">
+      <c r="B32" s="84">
         <v>22</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="85"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="78"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="91">
+      <c r="B33" s="84">
         <v>23</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="85"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="78"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="91">
+      <c r="B34" s="84">
         <v>24</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="85"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="78"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="91">
+      <c r="B35" s="84">
         <v>25</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="85"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="78"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="91">
+      <c r="B36" s="84">
         <v>26</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="85"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="78"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="91">
+      <c r="B37" s="84">
         <v>27</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="85"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="78"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="91">
+      <c r="B38" s="84">
         <v>28</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="85"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="78"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="91">
+      <c r="B39" s="84">
         <v>29</v>
       </c>
-      <c r="C39" s="90"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="85"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="78"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="91">
+      <c r="B40" s="84">
         <v>30</v>
       </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="85"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="78"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="91">
+      <c r="B41" s="84">
         <v>31</v>
       </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="85"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="78"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="84">
+      <c r="B42" s="77">
         <v>32</v>
       </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="78"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -6233,21 +6260,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2. Dạy kèm/Nội dung học.xlsx
+++ b/2. Dạy kèm/Nội dung học.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C5FB4-EA02-45B4-9298-0336E8013927}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE41D52-66F2-4011-BAE4-8510B4D3AD61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,12 +15,19 @@
     <sheet name="Bảng giá" sheetId="11" r:id="rId5"/>
     <sheet name="DS Dạy kèm" sheetId="12" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="350">
   <si>
     <t>Luyện Tập Part 2</t>
   </si>
@@ -67,19 +74,10 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Part 7.1: Câu hỏi tổng quan, Câu hỏi thông tin</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
     <t>REVISION</t>
-  </si>
-  <si>
-    <t>ÔN TẬP</t>
-  </si>
-  <si>
-    <t>Part 7.2: Câu hỏi NOT/TRUE, Câu hỏi suy luận, Câu hỏi từ đồng nghĩa</t>
   </si>
   <si>
     <t>Passage 03</t>
@@ -876,19 +874,10 @@
     <t>Part 3.2</t>
   </si>
   <si>
-    <t>LỘ TRÌNH HỌC READING - KHOÁ CƠ BẢN</t>
-  </si>
-  <si>
     <t>Động từ &amp; Thì</t>
   </si>
   <si>
     <t>Bài test số 4: Từ vựng</t>
-  </si>
-  <si>
-    <t>13, 14</t>
-  </si>
-  <si>
-    <t>15, 16, 17</t>
   </si>
   <si>
     <t>32 Test 1
@@ -995,15 +984,6 @@
     <t>Part 1.2: Tranh có đồ vật / phong cảnh</t>
   </si>
   <si>
-    <t>Giải đề</t>
-  </si>
-  <si>
-    <t>Nâng cao</t>
-  </si>
-  <si>
-    <t>Cơ bản</t>
-  </si>
-  <si>
     <t>Số buổi</t>
   </si>
   <si>
@@ -1031,9 +1011,6 @@
     <t>BẢNG GIÁ DẠY TOEIC</t>
   </si>
   <si>
-    <t>Học phí  (tính theo buổi 2 tiếng)</t>
-  </si>
-  <si>
     <t>Phát âm</t>
   </si>
   <si>
@@ -1050,15 +1027,112 @@
   </si>
   <si>
     <t>Bài test số 3: Động từ</t>
+  </si>
+  <si>
+    <t>Ôn tập: Danh từ, Tính từ, Trạng từ</t>
+  </si>
+  <si>
+    <t>Ôn tập: Động từ</t>
+  </si>
+  <si>
+    <t>CƠ BẢN</t>
+  </si>
+  <si>
+    <t>LỘ TRÌNH HỌC READING</t>
+  </si>
+  <si>
+    <t>Mệnh đề quan hệ</t>
+  </si>
+  <si>
+    <t>Mệnh đề danh ngữ</t>
+  </si>
+  <si>
+    <t>Bài test số 5: Mệnh đề</t>
+  </si>
+  <si>
+    <t>Part 7: Câu hỏi tổng quan, câu hỏi thông tin</t>
+  </si>
+  <si>
+    <t>Part 7: Câu hỏi NOT/TRUE, câu hỏi suy luận, câu hỏi từ đồng nghĩa</t>
+  </si>
+  <si>
+    <t>Bài thi thử</t>
+  </si>
+  <si>
+    <t>Bài test số 6: Từ vựng</t>
+  </si>
+  <si>
+    <t>Bài test số 7: Part 7</t>
+  </si>
+  <si>
+    <t>NÂNG CAO</t>
+  </si>
+  <si>
+    <t>Học phí  (tính theo buổi 1 tiếng 30' - 2 tiếng)</t>
+  </si>
+  <si>
+    <t>Học phí toàn khóa</t>
+  </si>
+  <si>
+    <t>Cơ bản (32 buổi)</t>
+  </si>
+  <si>
+    <t>Nâng cao (32 buổi)</t>
+  </si>
+  <si>
+    <t>Giải đề (10 buổi)</t>
+  </si>
+  <si>
+    <t>Part 7: Bài đọc đơn: Thư &amp; E-mail, Quảng cáo</t>
+  </si>
+  <si>
+    <t>Part 7: Bài đọc đơn: Niêm yết &amp; Thông báo, Bài báo &amp; báo cáo</t>
+  </si>
+  <si>
+    <t>Part 7: Bài đọc đơn: Thư nhắn, Đoạn thông tin &amp; Các dạng bài đọc khác</t>
+  </si>
+  <si>
+    <t>Part 7: Bài đọc kép: Thư &amp; E-mail, Quảng cáo</t>
+  </si>
+  <si>
+    <t>Part 7: Bài đọc kép: Thông báo, Bài báo</t>
+  </si>
+  <si>
+    <t>Part 7: Bài đọc ba</t>
+  </si>
+  <si>
+    <t>Mệnh đề trạng ngữ, &amp; Câu điều kiện</t>
+  </si>
+  <si>
+    <t>12, 13</t>
+  </si>
+  <si>
+    <t>14, 15, 16</t>
+  </si>
+  <si>
+    <t>17, 18</t>
+  </si>
+  <si>
+    <t>19, 20</t>
+  </si>
+  <si>
+    <t>21, 22</t>
+  </si>
+  <si>
+    <t>23, 24</t>
+  </si>
+  <si>
+    <t>25, 26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;??\ [$₫-42A]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;₫&quot;"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1195,19 +1269,19 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1256,6 +1330,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -1779,7 +1865,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1899,13 +1985,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1927,13 +2006,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2049,9 +2121,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2069,9 +2138,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2088,10 +2154,56 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2103,16 +2215,79 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2124,24 +2299,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2157,12 +2314,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2179,12 +2330,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2199,64 +2344,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
@@ -2271,8 +2358,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF00CC00"/>
       <color rgb="FF008000"/>
-      <color rgb="FF00CC00"/>
       <color rgb="FF0066CC"/>
       <color rgb="FF6600CC"/>
       <color rgb="FF00FF00"/>
@@ -2615,7 +2702,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,10 +2714,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="122"/>
+      <c r="A1" s="125" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="125"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -2641,55 +2728,55 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="116">
+      <c r="A3" s="108">
         <v>1</v>
       </c>
-      <c r="B3" s="117" t="s">
-        <v>322</v>
+      <c r="B3" s="109" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="116">
+      <c r="A4" s="108">
         <v>2</v>
       </c>
-      <c r="B4" s="117" t="s">
-        <v>322</v>
+      <c r="B4" s="109" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="116">
+      <c r="A5" s="108">
         <v>3</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="116">
+      <c r="A6" s="108">
         <v>4</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="116">
+      <c r="A7" s="108">
         <v>5</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="116">
+      <c r="A8" s="108">
         <v>6</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="116">
+      <c r="A9" s="108">
         <v>7</v>
       </c>
       <c r="B9" s="44" t="s">
@@ -2697,7 +2784,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="116">
+      <c r="A10" s="108">
         <v>8</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -2705,7 +2792,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="116">
+      <c r="A11" s="108">
         <v>9</v>
       </c>
       <c r="B11" s="44" t="s">
@@ -2713,7 +2800,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="116">
+      <c r="A12" s="108">
         <v>10</v>
       </c>
       <c r="B12" s="44" t="s">
@@ -2721,7 +2808,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="116">
+      <c r="A13" s="108">
         <v>11</v>
       </c>
       <c r="B13" s="44" t="s">
@@ -2729,15 +2816,15 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="116">
+      <c r="A14" s="108">
         <v>12</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="116">
+      <c r="A15" s="108">
         <v>13</v>
       </c>
       <c r="B15" s="44" t="s">
@@ -2745,40 +2832,40 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="116">
+      <c r="A16" s="108">
         <v>14</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="116">
+      <c r="A17" s="108">
         <v>15</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="116">
+      <c r="A18" s="108">
         <v>16</v>
       </c>
-      <c r="B18" s="60" t="s">
-        <v>323</v>
+      <c r="B18" s="57" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
-      <c r="B19" s="119"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="111"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
-      <c r="B20" s="120"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="112"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="121" t="s">
-        <v>326</v>
+      <c r="E26" s="113" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2792,317 +2879,456 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="49" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+    <row r="1" spans="1:5" s="46" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="118" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="C2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="D2" s="117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="176">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="126" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" s="119">
         <v>1</v>
       </c>
-      <c r="B3" s="176">
+      <c r="C3" s="119">
         <v>1</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="D3" s="120" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="176">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="126"/>
+      <c r="B4" s="119">
         <v>2</v>
       </c>
-      <c r="B4" s="176">
+      <c r="C4" s="119">
         <v>2</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="D4" s="120" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="176">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="126"/>
+      <c r="B5" s="119">
         <v>3</v>
       </c>
-      <c r="B5" s="176">
+      <c r="C5" s="119">
         <v>3</v>
       </c>
-      <c r="C5" s="177" t="s">
+      <c r="D5" s="120" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="176">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="126"/>
+      <c r="B6" s="119">
         <v>4</v>
       </c>
-      <c r="B6" s="176" t="s">
+      <c r="C6" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="D6" s="120" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="126"/>
+      <c r="B7" s="119">
+        <v>5</v>
+      </c>
+      <c r="C7" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="120" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="176">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="126"/>
+      <c r="B8" s="119">
+        <v>6</v>
+      </c>
+      <c r="C8" s="119">
+        <v>4</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="126"/>
+      <c r="B9" s="119">
+        <v>7</v>
+      </c>
+      <c r="C9" s="119">
         <v>5</v>
       </c>
-      <c r="B7" s="176">
-        <v>4</v>
-      </c>
-      <c r="C7" s="177" t="s">
+      <c r="D9" s="120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="126"/>
+      <c r="B10" s="119">
+        <v>8</v>
+      </c>
+      <c r="C10" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="120" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="176">
+      <c r="E10" s="115"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="126"/>
+      <c r="B11" s="119">
+        <v>9</v>
+      </c>
+      <c r="C11" s="119">
         <v>6</v>
       </c>
-      <c r="B8" s="176">
-        <v>5</v>
-      </c>
-      <c r="C8" s="177" t="s">
+      <c r="D11" s="120" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="126"/>
+      <c r="B12" s="119">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="176">
+      <c r="C12" s="119">
         <v>7</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="D12" s="120" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="126"/>
+      <c r="B13" s="119">
+        <v>11</v>
+      </c>
+      <c r="C13" s="119">
+        <v>8</v>
+      </c>
+      <c r="D13" s="120" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="126"/>
+      <c r="B14" s="119">
+        <v>12</v>
+      </c>
+      <c r="C14" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="177" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="173"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="176">
-        <v>8</v>
-      </c>
-      <c r="B10" s="176">
-        <v>6</v>
-      </c>
-      <c r="C10" s="177" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="176">
+      <c r="D14" s="120" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="126"/>
+      <c r="B15" s="119">
+        <v>13</v>
+      </c>
+      <c r="C15" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="126"/>
+      <c r="B16" s="119">
+        <v>14</v>
+      </c>
+      <c r="C16" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="120" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="126"/>
+      <c r="B17" s="119">
+        <v>15</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="126"/>
+      <c r="B18" s="119">
+        <v>16</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="122" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="119">
+        <v>17</v>
+      </c>
+      <c r="C19" s="121">
         <v>9</v>
       </c>
-      <c r="B11" s="176">
-        <v>7</v>
-      </c>
-      <c r="C11" s="177" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="176">
+      <c r="D19" s="120" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="129"/>
+      <c r="B20" s="119">
+        <v>18</v>
+      </c>
+      <c r="C20" s="119">
         <v>10</v>
       </c>
-      <c r="B12" s="176">
-        <v>8</v>
-      </c>
-      <c r="C12" s="177" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="176">
+      <c r="D20" s="122" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="129"/>
+      <c r="B21" s="119">
+        <v>19</v>
+      </c>
+      <c r="C21" s="119">
         <v>11</v>
       </c>
-      <c r="B13" s="176" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="177" t="s">
+      <c r="D21" s="122" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="129"/>
+      <c r="B22" s="119">
+        <v>20</v>
+      </c>
+      <c r="C22" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="122" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="129"/>
+      <c r="B23" s="119">
+        <v>21</v>
+      </c>
+      <c r="C23" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="120" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="129"/>
+      <c r="B24" s="119">
+        <v>22</v>
+      </c>
+      <c r="C24" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" s="122" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="129"/>
+      <c r="B25" s="119">
+        <v>23</v>
+      </c>
+      <c r="C25" s="119" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="122" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="129"/>
+      <c r="B26" s="119">
+        <v>24</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="D26" s="122" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="129"/>
+      <c r="B27" s="119">
+        <v>25</v>
+      </c>
+      <c r="C27" s="119" t="s">
+        <v>346</v>
+      </c>
+      <c r="D27" s="122" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="129"/>
+      <c r="B28" s="119">
+        <v>26</v>
+      </c>
+      <c r="C28" s="119" t="s">
+        <v>347</v>
+      </c>
+      <c r="D28" s="122" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="129"/>
+      <c r="B29" s="119">
+        <v>27</v>
+      </c>
+      <c r="C29" s="119" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="122" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="129"/>
+      <c r="B30" s="119">
+        <v>28</v>
+      </c>
+      <c r="C30" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" s="122" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="129"/>
+      <c r="B31" s="119">
+        <v>29</v>
+      </c>
+      <c r="C31" s="119">
+        <v>27</v>
+      </c>
+      <c r="D31" s="122" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="129"/>
+      <c r="B32" s="119">
+        <v>30</v>
+      </c>
+      <c r="C32" s="119">
+        <v>28</v>
+      </c>
+      <c r="D32" s="122" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="129"/>
+      <c r="B33" s="119">
+        <v>31</v>
+      </c>
+      <c r="C33" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="120" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="130"/>
+      <c r="B34" s="119">
+        <v>32</v>
+      </c>
+      <c r="C34" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="122" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="176">
-        <v>12</v>
-      </c>
-      <c r="B14" s="176" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="177" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="176">
-        <v>13</v>
-      </c>
-      <c r="B15" s="178" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="176">
-        <v>14</v>
-      </c>
-      <c r="B16" s="176" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" s="179" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="176">
-        <v>15</v>
-      </c>
-      <c r="B17" s="176" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" s="179" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="176">
-        <v>16</v>
-      </c>
-      <c r="B18" s="178" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="180" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="47"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="47"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="47"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="47"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="47"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="47"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="47"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="47"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="47"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="47"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="48"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="48"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="48"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="48"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="48"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="48"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="66"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="45"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="45"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="45"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A19:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3113,8 +3339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3130,973 +3356,973 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
-        <v>227</v>
+      <c r="A2" s="131" t="s">
+        <v>224</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="128"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="128"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="127" t="s">
-        <v>228</v>
+      <c r="A14" s="131" t="s">
+        <v>225</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="128"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="128"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="128"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="128"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="128"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="128"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="128"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="128"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="128"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="128"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="127" t="s">
-        <v>229</v>
+      <c r="A25" s="131" t="s">
+        <v>226</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="128"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="128"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="128"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="128"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="128"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="128"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="128"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="128"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="128"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="127" t="s">
-        <v>230</v>
+      <c r="A35" s="131" t="s">
+        <v>227</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="128"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="128"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="128"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="128"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="128"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="128"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="128"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="128"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="128"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="127" t="s">
-        <v>231</v>
+      <c r="A45" s="131" t="s">
+        <v>228</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="128"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="128"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="128"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="128"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="128"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="128"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="128"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="128"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="128"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="124" t="s">
-        <v>208</v>
+      <c r="A55" s="134" t="s">
+        <v>205</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="125"/>
+      <c r="A56" s="135"/>
       <c r="B56" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="125"/>
+      <c r="A57" s="135"/>
       <c r="B57" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="125"/>
+      <c r="A58" s="135"/>
       <c r="B58" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="125"/>
+      <c r="A59" s="135"/>
       <c r="B59" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="125"/>
+      <c r="A60" s="135"/>
       <c r="B60" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="125"/>
+      <c r="A61" s="135"/>
       <c r="B61" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="125"/>
+      <c r="A62" s="135"/>
       <c r="B62" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="125"/>
+      <c r="A63" s="135"/>
       <c r="B63" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="126"/>
+      <c r="A64" s="136"/>
       <c r="B64" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E64" s="38">
         <v>33</v>
@@ -4105,152 +4331,152 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="127" t="s">
-        <v>206</v>
+      <c r="A65" s="131" t="s">
+        <v>203</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="128"/>
+      <c r="A66" s="132"/>
       <c r="B66" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="128"/>
+      <c r="A67" s="132"/>
       <c r="B67" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="128"/>
+      <c r="A68" s="132"/>
       <c r="B68" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="128"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="128"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="128"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="128"/>
+      <c r="A72" s="132"/>
       <c r="B72" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="125"/>
+      <c r="A73" s="135"/>
       <c r="B73" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="129"/>
+      <c r="A74" s="133"/>
       <c r="B74" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E74" s="38">
         <v>25</v>
@@ -4259,152 +4485,152 @@
       <c r="G74" s="38"/>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="127" t="s">
-        <v>207</v>
+      <c r="A75" s="131" t="s">
+        <v>204</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="128"/>
+      <c r="A76" s="132"/>
       <c r="B76" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="128"/>
+      <c r="A77" s="132"/>
       <c r="B77" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="128"/>
+      <c r="A78" s="132"/>
       <c r="B78" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C78" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="128"/>
+      <c r="A79" s="132"/>
       <c r="B79" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="128"/>
+      <c r="A80" s="132"/>
       <c r="B80" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="128"/>
+      <c r="A81" s="132"/>
       <c r="B81" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="128"/>
+      <c r="A82" s="132"/>
       <c r="B82" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="128"/>
+      <c r="A83" s="132"/>
       <c r="B83" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C83" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="129"/>
+      <c r="A84" s="133"/>
       <c r="B84" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E84" s="38">
         <v>30</v>
@@ -4413,152 +4639,152 @@
       <c r="G84" s="38"/>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="127" t="s">
-        <v>209</v>
+      <c r="A85" s="131" t="s">
+        <v>206</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="128"/>
+      <c r="A86" s="132"/>
       <c r="B86" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="128"/>
+      <c r="A87" s="132"/>
       <c r="B87" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="128"/>
+      <c r="A88" s="132"/>
       <c r="B88" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="128"/>
+      <c r="A89" s="132"/>
       <c r="B89" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="128"/>
+      <c r="A90" s="132"/>
       <c r="B90" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="128"/>
+      <c r="A91" s="132"/>
       <c r="B91" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E91" s="38"/>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="128"/>
+      <c r="A92" s="132"/>
       <c r="B92" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="128"/>
+      <c r="A93" s="132"/>
       <c r="B93" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="129"/>
+      <c r="A94" s="133"/>
       <c r="B94" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E94" s="38">
         <v>36</v>
@@ -4567,122 +4793,122 @@
       <c r="G94" s="38"/>
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="127" t="s">
-        <v>210</v>
+      <c r="A95" s="131" t="s">
+        <v>207</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="128"/>
+      <c r="A96" s="132"/>
       <c r="B96" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="128"/>
+      <c r="A97" s="132"/>
       <c r="B97" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="128"/>
+      <c r="A98" s="132"/>
       <c r="B98" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="128"/>
+      <c r="A99" s="132"/>
       <c r="B99" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="128"/>
+      <c r="A100" s="132"/>
       <c r="B100" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="128"/>
+      <c r="A101" s="132"/>
       <c r="B101" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="128"/>
+      <c r="A102" s="132"/>
       <c r="B102" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E102" s="38">
         <v>26</v>
@@ -4691,122 +4917,122 @@
       <c r="G102" s="38"/>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="124" t="s">
-        <v>211</v>
+      <c r="A103" s="134" t="s">
+        <v>208</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="125"/>
+      <c r="A104" s="135"/>
       <c r="B104" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="125"/>
+      <c r="A105" s="135"/>
       <c r="B105" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="125"/>
+      <c r="A106" s="135"/>
       <c r="B106" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="125"/>
+      <c r="A107" s="135"/>
       <c r="B107" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="125"/>
+      <c r="A108" s="135"/>
       <c r="B108" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="125"/>
+      <c r="A109" s="135"/>
       <c r="B109" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="126"/>
+      <c r="A110" s="136"/>
       <c r="B110" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E110" s="38">
         <v>23</v>
@@ -4815,122 +5041,122 @@
       <c r="G110" s="38"/>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="124" t="s">
-        <v>212</v>
+      <c r="A111" s="134" t="s">
+        <v>209</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="125"/>
+      <c r="A112" s="135"/>
       <c r="B112" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="125"/>
+      <c r="A113" s="135"/>
       <c r="B113" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="125"/>
+      <c r="A114" s="135"/>
       <c r="B114" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C114" s="33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="125"/>
+      <c r="A115" s="135"/>
       <c r="B115" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C115" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E115" s="38"/>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="125"/>
+      <c r="A116" s="135"/>
       <c r="B116" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="125"/>
+      <c r="A117" s="135"/>
       <c r="B117" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C117" s="33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="125"/>
+      <c r="A118" s="135"/>
       <c r="B118" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E118" s="38">
         <v>29</v>
@@ -4939,385 +5165,385 @@
       <c r="G118" s="38"/>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="127" t="s">
-        <v>213</v>
+      <c r="A119" s="131" t="s">
+        <v>210</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="128"/>
+      <c r="A120" s="132"/>
       <c r="B120" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="128"/>
+      <c r="A121" s="132"/>
       <c r="B121" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="128"/>
+      <c r="A122" s="132"/>
       <c r="B122" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="128"/>
+      <c r="A123" s="132"/>
       <c r="B123" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="127" t="s">
-        <v>214</v>
+      <c r="A124" s="131" t="s">
+        <v>211</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="128"/>
+      <c r="A125" s="132"/>
       <c r="B125" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="128"/>
+      <c r="A126" s="132"/>
       <c r="B126" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E126" s="38"/>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="128"/>
+      <c r="A127" s="132"/>
       <c r="B127" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E127" s="38"/>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="129"/>
+      <c r="A128" s="133"/>
       <c r="B128" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="127" t="s">
-        <v>215</v>
+      <c r="A129" s="131" t="s">
+        <v>212</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="128"/>
+      <c r="A130" s="132"/>
       <c r="B130" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="128"/>
+      <c r="A131" s="132"/>
       <c r="B131" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="128"/>
+      <c r="A132" s="132"/>
       <c r="B132" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="129"/>
+      <c r="A133" s="133"/>
       <c r="B133" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="127" t="s">
-        <v>216</v>
+      <c r="A134" s="131" t="s">
+        <v>213</v>
       </c>
       <c r="B134" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E134" s="38"/>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="128"/>
+      <c r="A135" s="132"/>
       <c r="B135" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="128"/>
+      <c r="A136" s="132"/>
       <c r="B136" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C136" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="128"/>
+      <c r="A137" s="132"/>
       <c r="B137" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E137" s="38"/>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="129"/>
+      <c r="A138" s="133"/>
       <c r="B138" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C138" s="39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E138" s="38"/>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="127" t="s">
-        <v>217</v>
+      <c r="A139" s="131" t="s">
+        <v>214</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E139" s="38"/>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="128"/>
+      <c r="A140" s="132"/>
       <c r="B140" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E140" s="38"/>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="128"/>
+      <c r="A141" s="132"/>
       <c r="B141" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E141" s="38"/>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="128"/>
+      <c r="A142" s="132"/>
       <c r="B142" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E142" s="38"/>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="129"/>
+      <c r="A143" s="133"/>
       <c r="B143" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E143" s="38"/>
       <c r="F143" s="38"/>
@@ -5333,6 +5559,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A103:A110"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A111:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A24"/>
     <mergeCell ref="A75:A84"/>
@@ -5343,13 +5576,6 @@
     <mergeCell ref="A25:A34"/>
     <mergeCell ref="A35:A44"/>
     <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A103:A110"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A111:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5366,153 +5592,153 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="9" style="50"/>
-    <col min="11" max="11" width="9.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="50"/>
+    <col min="1" max="1" width="12.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9" style="47"/>
+    <col min="11" max="11" width="9.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>304</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="H1" s="56" t="s">
+      <c r="B1" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="C1" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="D1" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="E1" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="F1" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="G1" s="54" t="s">
         <v>296</v>
       </c>
+      <c r="H1" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="50">
+      <c r="A2" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="47">
         <v>12</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="47">
         <v>10</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="47">
         <v>14</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="47">
         <v>8</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="47">
         <v>11</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="47">
         <v>12</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="47">
         <v>17</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="47">
         <v>4</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="47">
         <v>18</v>
       </c>
-      <c r="L2" s="50">
+      <c r="L2" s="47">
         <v>16</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="50">
+      <c r="A3" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="47">
         <v>10</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="47">
         <v>10</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="47">
         <v>10</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="47">
         <v>6</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="47">
         <v>13</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="47">
         <v>13</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="47">
         <v>12</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="47">
         <v>4</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="47">
         <v>11</v>
       </c>
-      <c r="L3" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="M3" s="50">
+      <c r="L3" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="M3" s="47">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="J4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="C4" s="48" t="s">
         <v>284</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5526,70 +5752,81 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="67"/>
-    <col min="4" max="5" width="18.42578125" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="67"/>
+    <col min="1" max="1" width="17.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
+      <c r="A1" s="137" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="107" t="s">
-        <v>321</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="A2" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="B3" s="108">
+      <c r="A3" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="101">
         <v>100000</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113"/>
+      <c r="C3" s="124">
+        <f>B3*32</f>
+        <v>3200000</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="109">
+      <c r="A4" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="102">
         <v>120000</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="113"/>
+      <c r="C4" s="124">
+        <f t="shared" ref="C4" si="0">B4*32</f>
+        <v>3840000</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="106"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="109">
+      <c r="A5" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="102">
         <v>150000</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
+      <c r="C5" s="124">
+        <f>B5*10</f>
+        <v>1500000</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5610,640 +5847,625 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="69"/>
-    <col min="2" max="2" width="8.5703125" style="69" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="70" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="69" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="69" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="69" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="69" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="69" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="69" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="69" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="69" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="69"/>
+    <col min="1" max="1" width="9.140625" style="63"/>
+    <col min="2" max="2" width="8.5703125" style="63" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="64" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="63" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="63" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="63" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="63" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="63" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="63" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="63" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="133"/>
+      <c r="B2" s="99" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="172"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="164"/>
     </row>
     <row r="3" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="106" t="s">
-        <v>317</v>
-      </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="135"/>
+      <c r="B3" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="153"/>
     </row>
     <row r="4" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="137"/>
+      <c r="B4" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="150"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="131" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
+      <c r="B5" s="162" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="148"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="153"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="131"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="153"/>
     </row>
     <row r="7" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="106" t="s">
-        <v>314</v>
-      </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="135"/>
+      <c r="B7" s="100" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="153"/>
     </row>
     <row r="8" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="104" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
+      <c r="B8" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="143"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="103" t="s">
-        <v>312</v>
-      </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="98"/>
+      <c r="B10" s="97" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="92"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="97">
+      <c r="B11" s="91">
         <v>1</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="91"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="85"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="84">
+      <c r="B12" s="78">
         <v>2</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="78"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="72"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="84">
+      <c r="B13" s="78">
         <v>3</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="78"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="72"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="84">
+      <c r="B14" s="78">
         <v>4</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="78"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="84">
+      <c r="B15" s="78">
         <v>5</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="78"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="84">
+      <c r="B16" s="78">
         <v>6</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="78"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="72"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="84">
+      <c r="B17" s="78">
         <v>7</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="78"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="84">
+      <c r="B18" s="78">
         <v>8</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="78"/>
-      <c r="N18" s="85"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="72"/>
+      <c r="N18" s="79"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="84">
+      <c r="B19" s="78">
         <v>9</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="78"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="84">
+      <c r="B20" s="78">
         <v>10</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="78"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="72"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="84">
+      <c r="B21" s="78">
         <v>11</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="78"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="72"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="84">
+      <c r="B22" s="78">
         <v>12</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="78"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="72"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="84">
+      <c r="B23" s="78">
         <v>13</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="78"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="72"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="84">
+      <c r="B24" s="78">
         <v>14</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="78"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="72"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="84">
+      <c r="B25" s="78">
         <v>15</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="78"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="72"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="84">
+      <c r="B26" s="78">
         <v>16</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="78"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="72"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="84">
+      <c r="B27" s="78">
         <v>17</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="78"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="72"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="84">
+      <c r="B28" s="78">
         <v>18</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="78"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="72"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="84">
+      <c r="B29" s="78">
         <v>19</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="78"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="72"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="84">
+      <c r="B30" s="78">
         <v>20</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="78"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="72"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="84">
+      <c r="B31" s="78">
         <v>21</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="78"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="72"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="84">
+      <c r="B32" s="78">
         <v>22</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="78"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="72"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="84">
+      <c r="B33" s="78">
         <v>23</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="78"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="72"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="84">
+      <c r="B34" s="78">
         <v>24</v>
       </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="78"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="72"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="84">
+      <c r="B35" s="78">
         <v>25</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="78"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="72"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="84">
+      <c r="B36" s="78">
         <v>26</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="78"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="72"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="84">
+      <c r="B37" s="78">
         <v>27</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="78"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="72"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="84">
+      <c r="B38" s="78">
         <v>28</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="78"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="72"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="84">
+      <c r="B39" s="78">
         <v>29</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="78"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="72"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="84">
+      <c r="B40" s="78">
         <v>30</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="78"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="72"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="84">
+      <c r="B41" s="78">
         <v>31</v>
       </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="78"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="72"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="77">
+      <c r="B42" s="71">
         <v>32</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="71"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -6260,6 +6482,21 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2. Dạy kèm/Nội dung học.xlsx
+++ b/2. Dạy kèm/Nội dung học.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE41D52-66F2-4011-BAE4-8510B4D3AD61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7C560-D479-4ADD-A3A4-C8B85E63C0C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="351">
   <si>
     <t>Luyện Tập Part 2</t>
   </si>
@@ -1123,6 +1123,9 @@
   </si>
   <si>
     <t>25, 26</t>
+  </si>
+  <si>
+    <t>Part 7: Bài đọc ba (continue)</t>
   </si>
 </sst>
 </file>
@@ -2197,6 +2200,15 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2206,17 +2218,110 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2241,108 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2882,7 +2885,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3274,10 +3277,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="119">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="122" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -3339,7 +3342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -3372,7 +3375,7 @@
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="134" t="s">
         <v>224</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3389,7 +3392,7 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
+      <c r="A3" s="135"/>
       <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
@@ -3404,7 +3407,7 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3419,7 +3422,7 @@
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="6" t="s">
         <v>109</v>
       </c>
@@ -3434,7 +3437,7 @@
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="6" t="s">
         <v>108</v>
       </c>
@@ -3449,7 +3452,7 @@
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="6" t="s">
         <v>105</v>
       </c>
@@ -3464,7 +3467,7 @@
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="6" t="s">
         <v>104</v>
       </c>
@@ -3479,7 +3482,7 @@
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="6" t="s">
         <v>119</v>
       </c>
@@ -3494,7 +3497,7 @@
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="6" t="s">
         <v>118</v>
       </c>
@@ -3509,7 +3512,7 @@
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="6" t="s">
         <v>117</v>
       </c>
@@ -3524,7 +3527,7 @@
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="6" t="s">
         <v>116</v>
       </c>
@@ -3539,7 +3542,7 @@
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="5" t="s">
         <v>115</v>
       </c>
@@ -3554,7 +3557,7 @@
       <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="134" t="s">
         <v>225</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3571,7 +3574,7 @@
       <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
@@ -3586,7 +3589,7 @@
       <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
@@ -3601,7 +3604,7 @@
       <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="6" t="s">
         <v>109</v>
       </c>
@@ -3616,7 +3619,7 @@
       <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
+      <c r="A18" s="135"/>
       <c r="B18" s="6" t="s">
         <v>108</v>
       </c>
@@ -3631,7 +3634,7 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="6" t="s">
         <v>105</v>
       </c>
@@ -3646,7 +3649,7 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="6" t="s">
         <v>104</v>
       </c>
@@ -3661,7 +3664,7 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="6" t="s">
         <v>119</v>
       </c>
@@ -3676,7 +3679,7 @@
       <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="6" t="s">
         <v>118</v>
       </c>
@@ -3691,7 +3694,7 @@
       <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
+      <c r="A23" s="135"/>
       <c r="B23" s="6" t="s">
         <v>117</v>
       </c>
@@ -3706,7 +3709,7 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
+      <c r="A24" s="135"/>
       <c r="B24" s="5" t="s">
         <v>116</v>
       </c>
@@ -3721,7 +3724,7 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="131" t="s">
+      <c r="A25" s="134" t="s">
         <v>226</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -3738,7 +3741,7 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="8" t="s">
         <v>20</v>
       </c>
@@ -3753,7 +3756,7 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="8" t="s">
         <v>17</v>
       </c>
@@ -3768,7 +3771,7 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="132"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="8" t="s">
         <v>109</v>
       </c>
@@ -3783,7 +3786,7 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="132"/>
+      <c r="A29" s="135"/>
       <c r="B29" s="8" t="s">
         <v>108</v>
       </c>
@@ -3798,7 +3801,7 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="132"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="8" t="s">
         <v>105</v>
       </c>
@@ -3813,7 +3816,7 @@
       <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="132"/>
+      <c r="A31" s="135"/>
       <c r="B31" s="8" t="s">
         <v>104</v>
       </c>
@@ -3828,7 +3831,7 @@
       <c r="G31" s="38"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="132"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="8" t="s">
         <v>119</v>
       </c>
@@ -3843,7 +3846,7 @@
       <c r="G32" s="38"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
+      <c r="A33" s="135"/>
       <c r="B33" s="8" t="s">
         <v>118</v>
       </c>
@@ -3858,7 +3861,7 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="8" t="s">
         <v>117</v>
       </c>
@@ -3873,7 +3876,7 @@
       <c r="G34" s="38"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="131" t="s">
+      <c r="A35" s="134" t="s">
         <v>227</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -3890,7 +3893,7 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
+      <c r="A36" s="135"/>
       <c r="B36" s="6" t="s">
         <v>20</v>
       </c>
@@ -3905,7 +3908,7 @@
       <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="132"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="6" t="s">
         <v>17</v>
       </c>
@@ -3920,7 +3923,7 @@
       <c r="G37" s="38"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="132"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="6" t="s">
         <v>109</v>
       </c>
@@ -3935,7 +3938,7 @@
       <c r="G38" s="38"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="132"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="6" t="s">
         <v>108</v>
       </c>
@@ -3950,7 +3953,7 @@
       <c r="G39" s="38"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="132"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="6" t="s">
         <v>105</v>
       </c>
@@ -3965,7 +3968,7 @@
       <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="132"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="6" t="s">
         <v>104</v>
       </c>
@@ -3980,7 +3983,7 @@
       <c r="G41" s="38"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="132"/>
+      <c r="A42" s="135"/>
       <c r="B42" s="6" t="s">
         <v>119</v>
       </c>
@@ -3995,7 +3998,7 @@
       <c r="G42" s="38"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="132"/>
+      <c r="A43" s="135"/>
       <c r="B43" s="6" t="s">
         <v>118</v>
       </c>
@@ -4010,7 +4013,7 @@
       <c r="G43" s="38"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="132"/>
+      <c r="A44" s="135"/>
       <c r="B44" s="5" t="s">
         <v>117</v>
       </c>
@@ -4025,7 +4028,7 @@
       <c r="G44" s="38"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="131" t="s">
+      <c r="A45" s="134" t="s">
         <v>228</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -4042,7 +4045,7 @@
       <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="132"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="6" t="s">
         <v>20</v>
       </c>
@@ -4057,7 +4060,7 @@
       <c r="G46" s="38"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="132"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="6" t="s">
         <v>17</v>
       </c>
@@ -4072,7 +4075,7 @@
       <c r="G47" s="38"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="132"/>
+      <c r="A48" s="135"/>
       <c r="B48" s="6" t="s">
         <v>109</v>
       </c>
@@ -4087,7 +4090,7 @@
       <c r="G48" s="38"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="132"/>
+      <c r="A49" s="135"/>
       <c r="B49" s="6" t="s">
         <v>108</v>
       </c>
@@ -4102,7 +4105,7 @@
       <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="132"/>
+      <c r="A50" s="135"/>
       <c r="B50" s="6" t="s">
         <v>105</v>
       </c>
@@ -4117,7 +4120,7 @@
       <c r="G50" s="38"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="132"/>
+      <c r="A51" s="135"/>
       <c r="B51" s="6" t="s">
         <v>104</v>
       </c>
@@ -4132,7 +4135,7 @@
       <c r="G51" s="38"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="132"/>
+      <c r="A52" s="135"/>
       <c r="B52" s="6" t="s">
         <v>119</v>
       </c>
@@ -4147,7 +4150,7 @@
       <c r="G52" s="38"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="132"/>
+      <c r="A53" s="135"/>
       <c r="B53" s="6" t="s">
         <v>118</v>
       </c>
@@ -4162,7 +4165,7 @@
       <c r="G53" s="38"/>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="132"/>
+      <c r="A54" s="135"/>
       <c r="B54" s="5" t="s">
         <v>117</v>
       </c>
@@ -4177,7 +4180,7 @@
       <c r="G54" s="38"/>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="134" t="s">
+      <c r="A55" s="131" t="s">
         <v>205</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -4194,7 +4197,7 @@
       <c r="G55" s="38"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="135"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="6" t="s">
         <v>20</v>
       </c>
@@ -4209,7 +4212,7 @@
       <c r="G56" s="38"/>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="135"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="6" t="s">
         <v>17</v>
       </c>
@@ -4224,7 +4227,7 @@
       <c r="G57" s="38"/>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="135"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="6" t="s">
         <v>109</v>
       </c>
@@ -4239,7 +4242,7 @@
       <c r="G58" s="38"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="135"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="6" t="s">
         <v>108</v>
       </c>
@@ -4254,7 +4257,7 @@
       <c r="G59" s="38"/>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="135"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="6" t="s">
         <v>105</v>
       </c>
@@ -4269,7 +4272,7 @@
       <c r="G60" s="38"/>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="135"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="6" t="s">
         <v>104</v>
       </c>
@@ -4284,7 +4287,7 @@
       <c r="G61" s="38"/>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="135"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="6" t="s">
         <v>119</v>
       </c>
@@ -4299,7 +4302,7 @@
       <c r="G62" s="38"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="135"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="6" t="s">
         <v>118</v>
       </c>
@@ -4314,7 +4317,7 @@
       <c r="G63" s="38"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="136"/>
+      <c r="A64" s="133"/>
       <c r="B64" s="6" t="s">
         <v>117</v>
       </c>
@@ -4331,7 +4334,7 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="131" t="s">
+      <c r="A65" s="134" t="s">
         <v>203</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -4348,7 +4351,7 @@
       <c r="G65" s="38"/>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="132"/>
+      <c r="A66" s="135"/>
       <c r="B66" s="6" t="s">
         <v>20</v>
       </c>
@@ -4363,7 +4366,7 @@
       <c r="G66" s="38"/>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="132"/>
+      <c r="A67" s="135"/>
       <c r="B67" s="6" t="s">
         <v>17</v>
       </c>
@@ -4378,7 +4381,7 @@
       <c r="G67" s="38"/>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="132"/>
+      <c r="A68" s="135"/>
       <c r="B68" s="8" t="s">
         <v>109</v>
       </c>
@@ -4393,7 +4396,7 @@
       <c r="G68" s="38"/>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="132"/>
+      <c r="A69" s="135"/>
       <c r="B69" s="6" t="s">
         <v>108</v>
       </c>
@@ -4408,7 +4411,7 @@
       <c r="G69" s="38"/>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="132"/>
+      <c r="A70" s="135"/>
       <c r="B70" s="8" t="s">
         <v>105</v>
       </c>
@@ -4423,7 +4426,7 @@
       <c r="G70" s="38"/>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="132"/>
+      <c r="A71" s="135"/>
       <c r="B71" s="8" t="s">
         <v>104</v>
       </c>
@@ -4438,7 +4441,7 @@
       <c r="G71" s="38"/>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="132"/>
+      <c r="A72" s="135"/>
       <c r="B72" s="6" t="s">
         <v>119</v>
       </c>
@@ -4453,7 +4456,7 @@
       <c r="G72" s="38"/>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="135"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="6" t="s">
         <v>118</v>
       </c>
@@ -4468,7 +4471,7 @@
       <c r="G73" s="38"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="133"/>
+      <c r="A74" s="136"/>
       <c r="B74" s="8" t="s">
         <v>117</v>
       </c>
@@ -4485,7 +4488,7 @@
       <c r="G74" s="38"/>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="131" t="s">
+      <c r="A75" s="134" t="s">
         <v>204</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -4502,7 +4505,7 @@
       <c r="G75" s="38"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="132"/>
+      <c r="A76" s="135"/>
       <c r="B76" s="8" t="s">
         <v>20</v>
       </c>
@@ -4517,7 +4520,7 @@
       <c r="G76" s="38"/>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="132"/>
+      <c r="A77" s="135"/>
       <c r="B77" s="8" t="s">
         <v>17</v>
       </c>
@@ -4532,7 +4535,7 @@
       <c r="G77" s="38"/>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="132"/>
+      <c r="A78" s="135"/>
       <c r="B78" s="8" t="s">
         <v>109</v>
       </c>
@@ -4547,7 +4550,7 @@
       <c r="G78" s="38"/>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="132"/>
+      <c r="A79" s="135"/>
       <c r="B79" s="8" t="s">
         <v>108</v>
       </c>
@@ -4562,7 +4565,7 @@
       <c r="G79" s="38"/>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="132"/>
+      <c r="A80" s="135"/>
       <c r="B80" s="8" t="s">
         <v>105</v>
       </c>
@@ -4577,7 +4580,7 @@
       <c r="G80" s="38"/>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="132"/>
+      <c r="A81" s="135"/>
       <c r="B81" s="8" t="s">
         <v>104</v>
       </c>
@@ -4592,7 +4595,7 @@
       <c r="G81" s="38"/>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="132"/>
+      <c r="A82" s="135"/>
       <c r="B82" s="8" t="s">
         <v>119</v>
       </c>
@@ -4607,7 +4610,7 @@
       <c r="G82" s="38"/>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="132"/>
+      <c r="A83" s="135"/>
       <c r="B83" s="8" t="s">
         <v>118</v>
       </c>
@@ -4622,7 +4625,7 @@
       <c r="G83" s="38"/>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="133"/>
+      <c r="A84" s="136"/>
       <c r="B84" s="8" t="s">
         <v>117</v>
       </c>
@@ -4639,7 +4642,7 @@
       <c r="G84" s="38"/>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="131" t="s">
+      <c r="A85" s="134" t="s">
         <v>206</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -4656,7 +4659,7 @@
       <c r="G85" s="38"/>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="132"/>
+      <c r="A86" s="135"/>
       <c r="B86" s="8" t="s">
         <v>20</v>
       </c>
@@ -4671,7 +4674,7 @@
       <c r="G86" s="38"/>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="132"/>
+      <c r="A87" s="135"/>
       <c r="B87" s="8" t="s">
         <v>17</v>
       </c>
@@ -4686,7 +4689,7 @@
       <c r="G87" s="38"/>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="132"/>
+      <c r="A88" s="135"/>
       <c r="B88" s="8" t="s">
         <v>109</v>
       </c>
@@ -4701,7 +4704,7 @@
       <c r="G88" s="38"/>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="132"/>
+      <c r="A89" s="135"/>
       <c r="B89" s="8" t="s">
         <v>108</v>
       </c>
@@ -4716,7 +4719,7 @@
       <c r="G89" s="38"/>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="132"/>
+      <c r="A90" s="135"/>
       <c r="B90" s="8" t="s">
         <v>105</v>
       </c>
@@ -4731,7 +4734,7 @@
       <c r="G90" s="38"/>
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="132"/>
+      <c r="A91" s="135"/>
       <c r="B91" s="8" t="s">
         <v>104</v>
       </c>
@@ -4746,7 +4749,7 @@
       <c r="G91" s="38"/>
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="132"/>
+      <c r="A92" s="135"/>
       <c r="B92" s="8" t="s">
         <v>119</v>
       </c>
@@ -4761,7 +4764,7 @@
       <c r="G92" s="38"/>
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="132"/>
+      <c r="A93" s="135"/>
       <c r="B93" s="8" t="s">
         <v>118</v>
       </c>
@@ -4776,7 +4779,7 @@
       <c r="G93" s="38"/>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="133"/>
+      <c r="A94" s="136"/>
       <c r="B94" s="8" t="s">
         <v>117</v>
       </c>
@@ -4793,7 +4796,7 @@
       <c r="G94" s="38"/>
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="131" t="s">
+      <c r="A95" s="134" t="s">
         <v>207</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -4810,7 +4813,7 @@
       <c r="G95" s="38"/>
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="132"/>
+      <c r="A96" s="135"/>
       <c r="B96" s="8" t="s">
         <v>20</v>
       </c>
@@ -4825,7 +4828,7 @@
       <c r="G96" s="38"/>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="132"/>
+      <c r="A97" s="135"/>
       <c r="B97" s="8" t="s">
         <v>17</v>
       </c>
@@ -4840,7 +4843,7 @@
       <c r="G97" s="38"/>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="132"/>
+      <c r="A98" s="135"/>
       <c r="B98" s="8" t="s">
         <v>109</v>
       </c>
@@ -4855,7 +4858,7 @@
       <c r="G98" s="38"/>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="132"/>
+      <c r="A99" s="135"/>
       <c r="B99" s="8" t="s">
         <v>108</v>
       </c>
@@ -4870,7 +4873,7 @@
       <c r="G99" s="38"/>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="132"/>
+      <c r="A100" s="135"/>
       <c r="B100" s="8" t="s">
         <v>105</v>
       </c>
@@ -4885,7 +4888,7 @@
       <c r="G100" s="38"/>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="132"/>
+      <c r="A101" s="135"/>
       <c r="B101" s="8" t="s">
         <v>104</v>
       </c>
@@ -4900,7 +4903,7 @@
       <c r="G101" s="38"/>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="132"/>
+      <c r="A102" s="135"/>
       <c r="B102" s="8" t="s">
         <v>119</v>
       </c>
@@ -4917,7 +4920,7 @@
       <c r="G102" s="38"/>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="134" t="s">
+      <c r="A103" s="131" t="s">
         <v>208</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -4934,7 +4937,7 @@
       <c r="G103" s="38"/>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="135"/>
+      <c r="A104" s="132"/>
       <c r="B104" s="8" t="s">
         <v>20</v>
       </c>
@@ -4949,7 +4952,7 @@
       <c r="G104" s="38"/>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="135"/>
+      <c r="A105" s="132"/>
       <c r="B105" s="8" t="s">
         <v>17</v>
       </c>
@@ -4964,7 +4967,7 @@
       <c r="G105" s="38"/>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="135"/>
+      <c r="A106" s="132"/>
       <c r="B106" s="8" t="s">
         <v>109</v>
       </c>
@@ -4979,7 +4982,7 @@
       <c r="G106" s="38"/>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="135"/>
+      <c r="A107" s="132"/>
       <c r="B107" s="8" t="s">
         <v>108</v>
       </c>
@@ -4994,7 +4997,7 @@
       <c r="G107" s="38"/>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="135"/>
+      <c r="A108" s="132"/>
       <c r="B108" s="8" t="s">
         <v>105</v>
       </c>
@@ -5009,7 +5012,7 @@
       <c r="G108" s="17"/>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="135"/>
+      <c r="A109" s="132"/>
       <c r="B109" s="8" t="s">
         <v>104</v>
       </c>
@@ -5024,7 +5027,7 @@
       <c r="G109" s="17"/>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="136"/>
+      <c r="A110" s="133"/>
       <c r="B110" s="8" t="s">
         <v>119</v>
       </c>
@@ -5041,7 +5044,7 @@
       <c r="G110" s="38"/>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="134" t="s">
+      <c r="A111" s="131" t="s">
         <v>209</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -5058,7 +5061,7 @@
       <c r="G111" s="38"/>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="135"/>
+      <c r="A112" s="132"/>
       <c r="B112" s="8" t="s">
         <v>20</v>
       </c>
@@ -5073,7 +5076,7 @@
       <c r="G112" s="38"/>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="135"/>
+      <c r="A113" s="132"/>
       <c r="B113" s="8" t="s">
         <v>17</v>
       </c>
@@ -5088,7 +5091,7 @@
       <c r="G113" s="38"/>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="135"/>
+      <c r="A114" s="132"/>
       <c r="B114" s="8" t="s">
         <v>109</v>
       </c>
@@ -5103,7 +5106,7 @@
       <c r="G114" s="38"/>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="135"/>
+      <c r="A115" s="132"/>
       <c r="B115" s="8" t="s">
         <v>108</v>
       </c>
@@ -5118,7 +5121,7 @@
       <c r="G115" s="38"/>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="135"/>
+      <c r="A116" s="132"/>
       <c r="B116" s="8" t="s">
         <v>105</v>
       </c>
@@ -5133,7 +5136,7 @@
       <c r="G116" s="38"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="135"/>
+      <c r="A117" s="132"/>
       <c r="B117" s="8" t="s">
         <v>104</v>
       </c>
@@ -5148,7 +5151,7 @@
       <c r="G117" s="38"/>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="135"/>
+      <c r="A118" s="132"/>
       <c r="B118" s="10" t="s">
         <v>119</v>
       </c>
@@ -5165,7 +5168,7 @@
       <c r="G118" s="38"/>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="131" t="s">
+      <c r="A119" s="134" t="s">
         <v>210</v>
       </c>
       <c r="B119" s="7" t="s">
@@ -5182,7 +5185,7 @@
       <c r="G119" s="38"/>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="132"/>
+      <c r="A120" s="135"/>
       <c r="B120" s="6" t="s">
         <v>20</v>
       </c>
@@ -5197,7 +5200,7 @@
       <c r="G120" s="38"/>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="132"/>
+      <c r="A121" s="135"/>
       <c r="B121" s="6" t="s">
         <v>17</v>
       </c>
@@ -5212,7 +5215,7 @@
       <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="132"/>
+      <c r="A122" s="135"/>
       <c r="B122" s="6" t="s">
         <v>109</v>
       </c>
@@ -5227,7 +5230,7 @@
       <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="132"/>
+      <c r="A123" s="135"/>
       <c r="B123" s="5" t="s">
         <v>108</v>
       </c>
@@ -5242,7 +5245,7 @@
       <c r="G123" s="38"/>
     </row>
     <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="131" t="s">
+      <c r="A124" s="134" t="s">
         <v>211</v>
       </c>
       <c r="B124" s="7" t="s">
@@ -5259,7 +5262,7 @@
       <c r="G124" s="38"/>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="132"/>
+      <c r="A125" s="135"/>
       <c r="B125" s="6" t="s">
         <v>20</v>
       </c>
@@ -5274,7 +5277,7 @@
       <c r="G125" s="38"/>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="132"/>
+      <c r="A126" s="135"/>
       <c r="B126" s="6" t="s">
         <v>17</v>
       </c>
@@ -5289,7 +5292,7 @@
       <c r="G126" s="38"/>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="132"/>
+      <c r="A127" s="135"/>
       <c r="B127" s="6" t="s">
         <v>109</v>
       </c>
@@ -5304,7 +5307,7 @@
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="133"/>
+      <c r="A128" s="136"/>
       <c r="B128" s="5" t="s">
         <v>108</v>
       </c>
@@ -5319,7 +5322,7 @@
       <c r="G128" s="38"/>
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="131" t="s">
+      <c r="A129" s="134" t="s">
         <v>212</v>
       </c>
       <c r="B129" s="7" t="s">
@@ -5336,7 +5339,7 @@
       <c r="G129" s="38"/>
     </row>
     <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="132"/>
+      <c r="A130" s="135"/>
       <c r="B130" s="6" t="s">
         <v>20</v>
       </c>
@@ -5351,7 +5354,7 @@
       <c r="G130" s="38"/>
     </row>
     <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="132"/>
+      <c r="A131" s="135"/>
       <c r="B131" s="6" t="s">
         <v>17</v>
       </c>
@@ -5366,7 +5369,7 @@
       <c r="G131" s="38"/>
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="132"/>
+      <c r="A132" s="135"/>
       <c r="B132" s="6" t="s">
         <v>109</v>
       </c>
@@ -5381,7 +5384,7 @@
       <c r="G132" s="38"/>
     </row>
     <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="133"/>
+      <c r="A133" s="136"/>
       <c r="B133" s="5" t="s">
         <v>108</v>
       </c>
@@ -5396,7 +5399,7 @@
       <c r="G133" s="38"/>
     </row>
     <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="131" t="s">
+      <c r="A134" s="134" t="s">
         <v>213</v>
       </c>
       <c r="B134" s="9" t="s">
@@ -5413,7 +5416,7 @@
       <c r="G134" s="38"/>
     </row>
     <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="132"/>
+      <c r="A135" s="135"/>
       <c r="B135" s="8" t="s">
         <v>20</v>
       </c>
@@ -5428,7 +5431,7 @@
       <c r="G135" s="38"/>
     </row>
     <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="132"/>
+      <c r="A136" s="135"/>
       <c r="B136" s="8" t="s">
         <v>17</v>
       </c>
@@ -5443,7 +5446,7 @@
       <c r="G136" s="38"/>
     </row>
     <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="132"/>
+      <c r="A137" s="135"/>
       <c r="B137" s="8" t="s">
         <v>109</v>
       </c>
@@ -5458,7 +5461,7 @@
       <c r="G137" s="38"/>
     </row>
     <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="133"/>
+      <c r="A138" s="136"/>
       <c r="B138" s="10" t="s">
         <v>108</v>
       </c>
@@ -5473,7 +5476,7 @@
       <c r="G138" s="38"/>
     </row>
     <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="131" t="s">
+      <c r="A139" s="134" t="s">
         <v>214</v>
       </c>
       <c r="B139" s="7" t="s">
@@ -5490,7 +5493,7 @@
       <c r="G139" s="38"/>
     </row>
     <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="132"/>
+      <c r="A140" s="135"/>
       <c r="B140" s="6" t="s">
         <v>20</v>
       </c>
@@ -5505,7 +5508,7 @@
       <c r="G140" s="38"/>
     </row>
     <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="132"/>
+      <c r="A141" s="135"/>
       <c r="B141" s="6" t="s">
         <v>17</v>
       </c>
@@ -5520,7 +5523,7 @@
       <c r="G141" s="38"/>
     </row>
     <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="132"/>
+      <c r="A142" s="135"/>
       <c r="B142" s="6" t="s">
         <v>109</v>
       </c>
@@ -5535,7 +5538,7 @@
       <c r="G142" s="38"/>
     </row>
     <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="133"/>
+      <c r="A143" s="136"/>
       <c r="B143" s="5" t="s">
         <v>108</v>
       </c>
@@ -5559,13 +5562,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A103:A110"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A111:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A24"/>
     <mergeCell ref="A75:A84"/>
@@ -5576,6 +5572,13 @@
     <mergeCell ref="A25:A34"/>
     <mergeCell ref="A35:A44"/>
     <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A103:A110"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A111:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5868,104 +5871,104 @@
       <c r="B2" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="164"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="140"/>
     </row>
     <row r="3" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
       <c r="E3" s="160"/>
       <c r="F3" s="161"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="153"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="142"/>
     </row>
     <row r="4" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="147"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="144"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="138" t="s">
         <v>306</v>
       </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="153"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="142"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="162"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="153"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142"/>
     </row>
     <row r="7" spans="2:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="100" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="146"/>
       <c r="E7" s="160"/>
       <c r="F7" s="161"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="153"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="142"/>
     </row>
     <row r="8" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="143"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="177"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6466,6 +6469,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -6482,21 +6500,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
